--- a/data/trans_orig/P19C01-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>90047</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74142</v>
+        <v>74539</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>107238</v>
+        <v>107974</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2274391999775892</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1872672673656209</v>
+        <v>0.1882697626710143</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2708621947212314</v>
+        <v>0.272721216415944</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>185</v>
@@ -765,19 +765,19 @@
         <v>194192</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>169368</v>
+        <v>170903</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>219172</v>
+        <v>217736</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2657963681886817</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2318182080572236</v>
+        <v>0.2339198525579339</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2999862852501672</v>
+        <v>0.2980207445990289</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>273</v>
@@ -786,19 +786,19 @@
         <v>284239</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>259120</v>
+        <v>256048</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>317023</v>
+        <v>314939</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2523157741053962</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2300177436499186</v>
+        <v>0.2272906685888108</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2814181542639508</v>
+        <v>0.2795681262396079</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>305868</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>288677</v>
+        <v>287941</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>321773</v>
+        <v>321376</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7725608000224108</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7291378052787686</v>
+        <v>0.727278783584056</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8127327326343791</v>
+        <v>0.8117302373289856</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>516</v>
@@ -836,19 +836,19 @@
         <v>536414</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>511434</v>
+        <v>512870</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>561238</v>
+        <v>559703</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7342036318113182</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7000137147498326</v>
+        <v>0.7019792554009712</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.768181791942776</v>
+        <v>0.7660801474420661</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>822</v>
@@ -857,19 +857,19 @@
         <v>842282</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>809498</v>
+        <v>811582</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>867401</v>
+        <v>870473</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7476842258946038</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7185818457360492</v>
+        <v>0.7204318737603921</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7699822563500813</v>
+        <v>0.7727093314111891</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>205797</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>181088</v>
+        <v>184192</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>232852</v>
+        <v>233887</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2570441119976572</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2261818149808984</v>
+        <v>0.2300587920230017</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2908367235653214</v>
+        <v>0.2921295383903708</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>256</v>
@@ -982,19 +982,19 @@
         <v>262691</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>235821</v>
+        <v>236403</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>290108</v>
+        <v>289395</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3090683478573973</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2774543235046765</v>
+        <v>0.2781400699995785</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3413260198762638</v>
+        <v>0.3404866353578654</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>455</v>
@@ -1003,19 +1003,19 @@
         <v>468487</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>434457</v>
+        <v>433811</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>504377</v>
+        <v>504972</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2838334123234995</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2632158189641545</v>
+        <v>0.2628247118179604</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3055772220613135</v>
+        <v>0.3059376018023157</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>594832</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>567777</v>
+        <v>566742</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>619541</v>
+        <v>616437</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7429558880023428</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7091632764346785</v>
+        <v>0.7078704616096293</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7738181850191016</v>
+        <v>0.7699412079769983</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>571</v>
@@ -1053,19 +1053,19 @@
         <v>587253</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>559836</v>
+        <v>560549</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>614123</v>
+        <v>613541</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6909316521426027</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6586739801237362</v>
+        <v>0.6595133646421346</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7225456764953234</v>
+        <v>0.7218599300004215</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1153</v>
@@ -1074,19 +1074,19 @@
         <v>1182085</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1146195</v>
+        <v>1145600</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1216115</v>
+        <v>1216761</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7161665876765005</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6944227779386862</v>
+        <v>0.6940623981976843</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7367841810358453</v>
+        <v>0.7371752881820395</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>292981</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>262141</v>
+        <v>264372</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>320064</v>
+        <v>318947</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.328622666896928</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2940313108604866</v>
+        <v>0.2965338021812148</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3590005007453142</v>
+        <v>0.3577477000713592</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>269</v>
@@ -1199,19 +1199,19 @@
         <v>272957</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>246434</v>
+        <v>247387</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>301771</v>
+        <v>301440</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3290134217196119</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2970430338736362</v>
+        <v>0.2981921741757875</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.36374370863762</v>
+        <v>0.3633456376513541</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>557</v>
@@ -1220,19 +1220,19 @@
         <v>565938</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>527249</v>
+        <v>527881</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>605717</v>
+        <v>608455</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3288110157868425</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3063325344468418</v>
+        <v>0.3066994892639865</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3519223596679611</v>
+        <v>0.353513412007408</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>598561</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>571478</v>
+        <v>572595</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>629401</v>
+        <v>627170</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.671377333103072</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6409994992546862</v>
+        <v>0.6422522999286407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7059686891395135</v>
+        <v>0.7034661978187852</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>553</v>
@@ -1270,19 +1270,19 @@
         <v>556667</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>527853</v>
+        <v>528184</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>583190</v>
+        <v>582237</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6709865782803881</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6362562913623798</v>
+        <v>0.6366543623486458</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7029569661263638</v>
+        <v>0.7018078258242123</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1139</v>
@@ -1291,19 +1291,19 @@
         <v>1155228</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1115449</v>
+        <v>1112711</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1193917</v>
+        <v>1193285</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6711889842131574</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6480776403320385</v>
+        <v>0.6464865879925917</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6936674655531574</v>
+        <v>0.6933005107360126</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>132571</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114836</v>
+        <v>114944</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>152461</v>
+        <v>152023</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3899571177233792</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3377911631568402</v>
+        <v>0.3381071699643214</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4484657505422726</v>
+        <v>0.4471751151734376</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>115</v>
@@ -1416,19 +1416,19 @@
         <v>116241</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>100250</v>
+        <v>101724</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>132432</v>
+        <v>133612</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4185992230626422</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3610125929373784</v>
+        <v>0.36632213002818</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4769055758926963</v>
+        <v>0.4811537494039627</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>242</v>
@@ -1437,19 +1437,19 @@
         <v>248812</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>227322</v>
+        <v>225995</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>275417</v>
+        <v>273222</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4028343463014811</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3680421703288797</v>
+        <v>0.3658938153883227</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4459084074120601</v>
+        <v>0.4423554001828107</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>207391</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>187501</v>
+        <v>187939</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>225126</v>
+        <v>225018</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6100428822766208</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5515342494577273</v>
+        <v>0.5528248848265624</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6622088368431598</v>
+        <v>0.6618928300356786</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>162</v>
@@ -1487,19 +1487,19 @@
         <v>161450</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>145259</v>
+        <v>144079</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>177441</v>
+        <v>175967</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5814007769373578</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5230944241073034</v>
+        <v>0.5188462505960367</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6389874070626212</v>
+        <v>0.63367786997182</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>365</v>
@@ -1508,19 +1508,19 @@
         <v>368841</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>342236</v>
+        <v>344431</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>390331</v>
+        <v>391658</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5971656536985189</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5540915925879401</v>
+        <v>0.5576445998171895</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6319578296711205</v>
+        <v>0.6341061846116773</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>721395</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>675329</v>
+        <v>676627</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>771129</v>
+        <v>763388</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2971090727075716</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.278136719467754</v>
+        <v>0.2786714742737003</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3175923083006682</v>
+        <v>0.3144040458474655</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>825</v>
@@ -1633,19 +1633,19 @@
         <v>846082</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>801199</v>
+        <v>799938</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>896469</v>
+        <v>892319</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3147784207088076</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.298080093982437</v>
+        <v>0.2976108443479721</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3335244433107141</v>
+        <v>0.3319804631455084</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1527</v>
@@ -1654,19 +1654,19 @@
         <v>1567477</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1505193</v>
+        <v>1505048</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1636963</v>
+        <v>1638334</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3063924274944488</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2942178565296335</v>
+        <v>0.2941895798968465</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3199747894307123</v>
+        <v>0.3202427015291688</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1706652</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1656918</v>
+        <v>1664659</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1752718</v>
+        <v>1751420</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7028909272924284</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6824076916993318</v>
+        <v>0.6855959541525346</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.721863280532246</v>
+        <v>0.7213285257262998</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1802</v>
@@ -1704,19 +1704,19 @@
         <v>1841784</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1791397</v>
+        <v>1795547</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1886667</v>
+        <v>1887928</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6852215792911923</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6664755566892858</v>
+        <v>0.6680195368544917</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.701919906017563</v>
+        <v>0.7023891556520279</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3479</v>
@@ -1725,19 +1725,19 @@
         <v>3548436</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3478950</v>
+        <v>3477579</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3610720</v>
+        <v>3610865</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6936075725055512</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6800252105692877</v>
+        <v>0.6797572984708311</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7057821434703666</v>
+        <v>0.7058104201031536</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>207554</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>184988</v>
+        <v>183266</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>234081</v>
+        <v>234567</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2514609075122589</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2241213860363786</v>
+        <v>0.2220351213902823</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2836006780445875</v>
+        <v>0.2841885446668562</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>261</v>
@@ -2090,19 +2090,19 @@
         <v>282595</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>254350</v>
+        <v>255550</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>311330</v>
+        <v>315538</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2985776978900761</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2687351032213482</v>
+        <v>0.2700031529392292</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3289372966452758</v>
+        <v>0.3333829959167403</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>458</v>
@@ -2111,19 +2111,19 @@
         <v>490149</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>449975</v>
+        <v>454279</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>530576</v>
+        <v>533748</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2766291714925857</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2539559003123532</v>
+        <v>0.2563850284411781</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.299445535317573</v>
+        <v>0.3012356830530867</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>617837</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>591310</v>
+        <v>590824</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>640403</v>
+        <v>642125</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7485390924877412</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7163993219554128</v>
+        <v>0.7158114553331438</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7758786139636215</v>
+        <v>0.7779648786097179</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>611</v>
@@ -2161,19 +2161,19 @@
         <v>663877</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>635142</v>
+        <v>630934</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>692122</v>
+        <v>690922</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.701422302109924</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6710627033547242</v>
+        <v>0.6666170040832594</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7312648967786511</v>
+        <v>0.7299968470607707</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1187</v>
@@ -2182,19 +2182,19 @@
         <v>1281714</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1241287</v>
+        <v>1238115</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1321888</v>
+        <v>1317584</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7233708285074143</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7005544646824272</v>
+        <v>0.6987643169469133</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.746044099687647</v>
+        <v>0.7436149715588219</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>227604</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>202334</v>
+        <v>203299</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>256310</v>
+        <v>256365</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2707079696534826</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2406527986163134</v>
+        <v>0.2418001865996384</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3048505420017566</v>
+        <v>0.3049156145915627</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>314</v>
@@ -2307,19 +2307,19 @@
         <v>338222</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>307984</v>
+        <v>306218</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>370818</v>
+        <v>367062</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3513122381881274</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3199038527837096</v>
+        <v>0.3180701735317729</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3851699475317313</v>
+        <v>0.3812686152964467</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>528</v>
@@ -2328,19 +2328,19 @@
         <v>565826</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>527425</v>
+        <v>526293</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>608111</v>
+        <v>611156</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3137355796332385</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2924435055441517</v>
+        <v>0.291816035327064</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3371815829648407</v>
+        <v>0.3388702887838473</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>613169</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>584463</v>
+        <v>584408</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>638439</v>
+        <v>637474</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7292920303465174</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6951494579982435</v>
+        <v>0.6950843854084375</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7593472013836866</v>
+        <v>0.7581998134003617</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>582</v>
@@ -2378,19 +2378,19 @@
         <v>624516</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>591920</v>
+        <v>595676</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>654754</v>
+        <v>656520</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6486877618118726</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6148300524682687</v>
+        <v>0.6187313847035534</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6800961472162903</v>
+        <v>0.6819298264682272</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1168</v>
@@ -2399,19 +2399,19 @@
         <v>1237685</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1195400</v>
+        <v>1192355</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1276086</v>
+        <v>1277218</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6862644203667615</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6628184170351589</v>
+        <v>0.6611297112161525</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7075564944558482</v>
+        <v>0.7081839646729359</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>245016</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>217472</v>
+        <v>219655</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>272573</v>
+        <v>273199</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3142134764821731</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2788902773276769</v>
+        <v>0.2816897694140399</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3495524443601297</v>
+        <v>0.3503549896878227</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>273</v>
@@ -2524,19 +2524,19 @@
         <v>289613</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>262609</v>
+        <v>263995</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>318084</v>
+        <v>320020</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3592779587186846</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3257782469072092</v>
+        <v>0.3274980047867104</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3945976224301798</v>
+        <v>0.3969993625197863</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>506</v>
@@ -2545,19 +2545,19 @@
         <v>534630</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>498392</v>
+        <v>500049</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>570091</v>
+        <v>576422</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3371196820709893</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3142696271365243</v>
+        <v>0.3153143191279371</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3594807034282944</v>
+        <v>0.3634726432668335</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>534761</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>507204</v>
+        <v>506578</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>562305</v>
+        <v>560122</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6857865235178269</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6504475556398702</v>
+        <v>0.6496450103121773</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.721109722672323</v>
+        <v>0.71831023058596</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>482</v>
@@ -2595,19 +2595,19 @@
         <v>516485</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>488014</v>
+        <v>486078</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>543489</v>
+        <v>542103</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6407220412813154</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6054023775698203</v>
+        <v>0.6030006374802138</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6742217530927908</v>
+        <v>0.6725019952132905</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>983</v>
@@ -2616,19 +2616,19 @@
         <v>1051245</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1015784</v>
+        <v>1009453</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1087483</v>
+        <v>1085826</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6628803179290107</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6405192965717058</v>
+        <v>0.6365273567331665</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6857303728634758</v>
+        <v>0.6846856808720628</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>173703</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>151964</v>
+        <v>151529</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>197544</v>
+        <v>196857</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3824391274046251</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3345759610717704</v>
+        <v>0.3336196182453383</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4349298319805274</v>
+        <v>0.4334174428779718</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>147</v>
@@ -2741,19 +2741,19 @@
         <v>163299</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>141653</v>
+        <v>142941</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>184886</v>
+        <v>183288</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.393058389473639</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3409560073110732</v>
+        <v>0.3440577662285421</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4450195423525323</v>
+        <v>0.4411722869414401</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>301</v>
@@ -2762,19 +2762,19 @@
         <v>337002</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>306490</v>
+        <v>304514</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>367557</v>
+        <v>367197</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3875122246306961</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3524272080767623</v>
+        <v>0.3501546327650598</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4226464238634486</v>
+        <v>0.4222331890669986</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>280495</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>256654</v>
+        <v>257341</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>302234</v>
+        <v>302669</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.617560872595375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5650701680194726</v>
+        <v>0.5665825571220282</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6654240389282295</v>
+        <v>0.6663803817546617</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>231</v>
@@ -2812,19 +2812,19 @@
         <v>252158</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>230571</v>
+        <v>232169</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>273804</v>
+        <v>272516</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6069416105263611</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5549804576474677</v>
+        <v>0.5588277130585598</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6590439926889267</v>
+        <v>0.6559422337714578</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>493</v>
@@ -2833,19 +2833,19 @@
         <v>532653</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>502098</v>
+        <v>502458</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>563165</v>
+        <v>565141</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6124877753693039</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5773535761365514</v>
+        <v>0.5777668109330016</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6475727919232378</v>
+        <v>0.6498453672349405</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>853877</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>806799</v>
+        <v>806863</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>907496</v>
+        <v>907461</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2944262560803761</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2781932812892505</v>
+        <v>0.2782150887488124</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3129145562586974</v>
+        <v>0.3129026366968929</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>995</v>
@@ -2958,19 +2958,19 @@
         <v>1073729</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1021129</v>
+        <v>1017946</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1126583</v>
+        <v>1129076</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3429606396831923</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3261595677264347</v>
+        <v>0.3251429831008577</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3598429720710167</v>
+        <v>0.3606392638507191</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1793</v>
@@ -2979,19 +2979,19 @@
         <v>1927606</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1851046</v>
+        <v>1861823</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2001367</v>
+        <v>2000229</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3196214349922943</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3069268213274338</v>
+        <v>0.3087138426977717</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3318520090090014</v>
+        <v>0.3316632047551965</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2046263</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1992644</v>
+        <v>1992679</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2093341</v>
+        <v>2093277</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7055737439196239</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6870854437413026</v>
+        <v>0.6870973633031071</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7218067187107494</v>
+        <v>0.7217849112511877</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1906</v>
@@ -3029,19 +3029,19 @@
         <v>2057035</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2004181</v>
+        <v>2001688</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2109635</v>
+        <v>2112818</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6570393603168077</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6401570279289838</v>
+        <v>0.6393607361492809</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6738404322735654</v>
+        <v>0.6748570168991426</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3831</v>
@@ -3050,19 +3050,19 @@
         <v>4103297</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4029536</v>
+        <v>4030674</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4179857</v>
+        <v>4169080</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6803785650077057</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6681479909909986</v>
+        <v>0.6683367952448036</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6930731786725662</v>
+        <v>0.6912861573022284</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>303222</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>276743</v>
+        <v>274284</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>332953</v>
+        <v>333057</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.386583828516369</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3528248797350598</v>
+        <v>0.3496898776084604</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4244883973507378</v>
+        <v>0.424621200093834</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>378</v>
@@ -3415,19 +3415,19 @@
         <v>388939</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>357832</v>
+        <v>357763</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>420122</v>
+        <v>418401</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4215159267497722</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3878036457431098</v>
+        <v>0.3877289889142673</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4553115155895056</v>
+        <v>0.4534460809595019</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>662</v>
@@ -3436,19 +3436,19 @@
         <v>692161</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>649455</v>
+        <v>652163</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>730459</v>
+        <v>731035</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4054654143157838</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3804485087637229</v>
+        <v>0.3820351056796171</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4279004016639962</v>
+        <v>0.4282380835583151</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>481141</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>451410</v>
+        <v>451306</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>507620</v>
+        <v>510079</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.613416171483631</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.575511602649262</v>
+        <v>0.5753787999061661</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6471751202649402</v>
+        <v>0.6503101223915396</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>509</v>
@@ -3486,19 +3486,19 @@
         <v>533775</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>502592</v>
+        <v>504313</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>564882</v>
+        <v>564951</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5784840732502278</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5446884844104947</v>
+        <v>0.5465539190404981</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6121963542568902</v>
+        <v>0.6122710110857326</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>962</v>
@@ -3507,19 +3507,19 @@
         <v>1014916</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>976618</v>
+        <v>976042</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1057622</v>
+        <v>1054914</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5945345856842162</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5720995983360039</v>
+        <v>0.5717619164416849</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6195514912362771</v>
+        <v>0.6179648943203829</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>307406</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>282488</v>
+        <v>283511</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>335621</v>
+        <v>334756</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4303490278168918</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3954654040564719</v>
+        <v>0.3968984882701799</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4698492015164601</v>
+        <v>0.4686374952645767</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>349</v>
@@ -3632,19 +3632,19 @@
         <v>363163</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>331408</v>
+        <v>335636</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>389253</v>
+        <v>393050</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4309613097732932</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3932781286181617</v>
+        <v>0.3982949656977458</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4619213878242207</v>
+        <v>0.4664273243068632</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>645</v>
@@ -3653,19 +3653,19 @@
         <v>670569</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>634080</v>
+        <v>632399</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>709969</v>
+        <v>711630</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.430680408296573</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4072447256894663</v>
+        <v>0.4061653282565911</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4559856509234801</v>
+        <v>0.4570525185580822</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>406911</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>378696</v>
+        <v>379561</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>431829</v>
+        <v>430806</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5696509721831082</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5301507984835399</v>
+        <v>0.5313625047354233</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6045345959435281</v>
+        <v>0.6031015117298201</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>449</v>
@@ -3703,19 +3703,19 @@
         <v>479519</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>453429</v>
+        <v>449632</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>511274</v>
+        <v>507046</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5690386902267068</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5380786121757793</v>
+        <v>0.5335726756931367</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6067218713818383</v>
+        <v>0.6017050343022542</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>847</v>
@@ -3724,19 +3724,19 @@
         <v>886430</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>847030</v>
+        <v>845369</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>922919</v>
+        <v>924600</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5693195917034269</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5440143490765202</v>
+        <v>0.5429474814419178</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5927552743105338</v>
+        <v>0.5938346717434089</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>295204</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>265246</v>
+        <v>266456</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>320021</v>
+        <v>321271</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4122434682521869</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3704087360224446</v>
+        <v>0.3720985283292055</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4469002548529026</v>
+        <v>0.4486458335051233</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>294</v>
@@ -3849,19 +3849,19 @@
         <v>304515</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>278026</v>
+        <v>278213</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>329993</v>
+        <v>330551</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4621088512542476</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4219113490449827</v>
+        <v>0.422194396466634</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5007715575441861</v>
+        <v>0.5016183411468709</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>575</v>
@@ -3870,19 +3870,19 @@
         <v>599719</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>561584</v>
+        <v>564849</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>637600</v>
+        <v>640669</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4361404169086553</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.408406826284733</v>
+        <v>0.4107816350163217</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4636887846795025</v>
+        <v>0.4659204626386481</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>420887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>396070</v>
+        <v>394820</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>450845</v>
+        <v>449635</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5877565317478131</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.553099745147097</v>
+        <v>0.5513541664948767</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6295912639775554</v>
+        <v>0.6279014716707945</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>334</v>
@@ -3920,19 +3920,19 @@
         <v>354454</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>328976</v>
+        <v>328418</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>380943</v>
+        <v>380756</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5378911487457524</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4992284424558138</v>
+        <v>0.4983816588531291</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5780886509550173</v>
+        <v>0.5778056035333661</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>736</v>
@@ -3941,19 +3941,19 @@
         <v>775341</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>737460</v>
+        <v>734391</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>813476</v>
+        <v>810211</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5638595830913447</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5363112153204975</v>
+        <v>0.5340795373613521</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5915931737152671</v>
+        <v>0.5892183649836783</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>174158</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>154208</v>
+        <v>154122</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>196880</v>
+        <v>195263</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4052513620877015</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3588291455027324</v>
+        <v>0.3586295661702567</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4581214233342793</v>
+        <v>0.4543591004002864</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>174</v>
@@ -4066,19 +4066,19 @@
         <v>183041</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>160959</v>
+        <v>162206</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201366</v>
+        <v>203573</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4243417013634272</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3731503782715668</v>
+        <v>0.3760419519289875</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4668244465839573</v>
+        <v>0.4719421758531888</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>340</v>
@@ -4087,19 +4087,19 @@
         <v>357199</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>330832</v>
+        <v>327762</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>386772</v>
+        <v>387597</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4148142435406068</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.384193269324201</v>
+        <v>0.3806281497926054</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4491569241879305</v>
+        <v>0.4501146094171626</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>255596</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>232874</v>
+        <v>234491</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>275546</v>
+        <v>275632</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5947486379122986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5418785766657206</v>
+        <v>0.5456408995997136</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6411708544972675</v>
+        <v>0.6413704338297433</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>230</v>
@@ -4137,19 +4137,19 @@
         <v>248311</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>229986</v>
+        <v>227779</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>270393</v>
+        <v>269146</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5756582986365728</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5331755534160427</v>
+        <v>0.5280578241468116</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6268496217284333</v>
+        <v>0.6239580480710127</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>461</v>
@@ -4158,19 +4158,19 @@
         <v>503908</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>474335</v>
+        <v>473510</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>530275</v>
+        <v>533345</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5851857564593933</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5508430758120696</v>
+        <v>0.5498853905828375</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6158067306757991</v>
+        <v>0.6193718502073944</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1079990</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1026044</v>
+        <v>1029430</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1130410</v>
+        <v>1130075</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4083870997343589</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3879878755713571</v>
+        <v>0.3892682657218483</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4274527783076293</v>
+        <v>0.4273262851253133</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1195</v>
@@ -4283,19 +4283,19 @@
         <v>1239658</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1187985</v>
+        <v>1189422</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1294008</v>
+        <v>1305109</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4340969500957162</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4160024943296652</v>
+        <v>0.416505518778769</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4531289477682315</v>
+        <v>0.4570162386467952</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2222</v>
@@ -4304,19 +4304,19 @@
         <v>2319648</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2241197</v>
+        <v>2248322</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2390391</v>
+        <v>2392806</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4217356115058385</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4074722888242419</v>
+        <v>0.40876783466093</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4345972854717556</v>
+        <v>0.4350364368676075</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1564536</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1514116</v>
+        <v>1514451</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1618482</v>
+        <v>1615096</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5916129002656411</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5725472216923705</v>
+        <v>0.5726737148746868</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6120121244286428</v>
+        <v>0.6107317342781516</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1522</v>
@@ -4354,19 +4354,19 @@
         <v>1616059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1561709</v>
+        <v>1550608</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1667732</v>
+        <v>1666295</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5659030499042838</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5468710522317685</v>
+        <v>0.5429837613532048</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5839975056703349</v>
+        <v>0.583494481221231</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3006</v>
@@ -4375,19 +4375,19 @@
         <v>3180595</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3109852</v>
+        <v>3107437</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3259046</v>
+        <v>3251921</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5782643884941615</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5654027145282443</v>
+        <v>0.5649635631323925</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5925277111757578</v>
+        <v>0.59123216533907</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>197540</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>174900</v>
+        <v>176614</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>222346</v>
+        <v>222312</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4367613705852093</v>
+        <v>0.4367613705852092</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3867035953697835</v>
+        <v>0.3904946318677462</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.491606561366095</v>
+        <v>0.4915312702133574</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>389</v>
@@ -4740,19 +4740,19 @@
         <v>301140</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>279256</v>
+        <v>278918</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>323831</v>
+        <v>324240</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5111051442029368</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.47396336473809</v>
+        <v>0.4733905930819019</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.549617491828663</v>
+        <v>0.550312777128807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>557</v>
@@ -4761,19 +4761,19 @@
         <v>498680</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>462975</v>
+        <v>464883</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>533463</v>
+        <v>528014</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4788197711499178</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.444536989312007</v>
+        <v>0.4463685733292883</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5122174529643658</v>
+        <v>0.5069858951243519</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>254744</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>229938</v>
+        <v>229972</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>277384</v>
+        <v>275670</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5632386294147909</v>
+        <v>0.5632386294147907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.508393438633905</v>
+        <v>0.5084687297866426</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6132964046302164</v>
+        <v>0.6095053681322536</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>428</v>
@@ -4811,19 +4811,19 @@
         <v>288053</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>265362</v>
+        <v>264953</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>309937</v>
+        <v>310275</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4888948557970632</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.450382508171337</v>
+        <v>0.449687222871193</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5260366352619099</v>
+        <v>0.5266094069180981</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>672</v>
@@ -4832,19 +4832,19 @@
         <v>542797</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>508014</v>
+        <v>513463</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>578502</v>
+        <v>576594</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5211802288500823</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4877825470356339</v>
+        <v>0.4930141048756482</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5554630106879929</v>
+        <v>0.5536314266707117</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>460793</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>428034</v>
+        <v>426368</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>494730</v>
+        <v>496253</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5002272390748811</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4646643919200387</v>
+        <v>0.4628562649285336</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5370682985823078</v>
+        <v>0.5387214460084686</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>845</v>
@@ -4957,19 +4957,19 @@
         <v>616447</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>585175</v>
+        <v>588895</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>645782</v>
+        <v>646064</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.567042219857578</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5382757494467424</v>
+        <v>0.5416979197985686</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5940253063268807</v>
+        <v>0.5942855096906429</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1274</v>
@@ -4978,19 +4978,19 @@
         <v>1077241</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1031218</v>
+        <v>1036043</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1123780</v>
+        <v>1129278</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5363954334659575</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5134791818931781</v>
+        <v>0.5158818709338384</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5595687048339573</v>
+        <v>0.5623065517791215</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>460375</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>426438</v>
+        <v>424915</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>493134</v>
+        <v>494800</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4997727609251187</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4629317014176922</v>
+        <v>0.4612785539915309</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5353356080799612</v>
+        <v>0.5371437350714664</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>722</v>
@@ -5028,19 +5028,19 @@
         <v>470681</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>441346</v>
+        <v>441064</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>501953</v>
+        <v>498233</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4329577801424219</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4059746936731197</v>
+        <v>0.4057144903093572</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4617242505532576</v>
+        <v>0.4583020802014314</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1173</v>
@@ -5049,19 +5049,19 @@
         <v>931055</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>884516</v>
+        <v>879018</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>977078</v>
+        <v>972253</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4636045665340424</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4404312951660425</v>
+        <v>0.4376934482208785</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4865208181068214</v>
+        <v>0.4841181290661615</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>673104</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>643877</v>
+        <v>640552</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>705024</v>
+        <v>704158</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6567389747515158</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6282233546245209</v>
+        <v>0.6249785605728162</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6878832357257673</v>
+        <v>0.6870378995234055</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>966</v>
@@ -5174,19 +5174,19 @@
         <v>670864</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>642742</v>
+        <v>644470</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>696264</v>
+        <v>700613</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6512589621132786</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6239590540205951</v>
+        <v>0.6256363477346719</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6759169777566876</v>
+        <v>0.6801388220393346</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1602</v>
@@ -5195,19 +5195,19 @@
         <v>1343968</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1301461</v>
+        <v>1299528</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1387409</v>
+        <v>1385402</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6539920552478841</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6333074715671192</v>
+        <v>0.63236675790053</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6751312049139921</v>
+        <v>0.6741545554360332</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>351814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>319894</v>
+        <v>320760</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>381041</v>
+        <v>384366</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3432610252484842</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3121167642742327</v>
+        <v>0.3129621004765944</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3717766453754794</v>
+        <v>0.3750214394271837</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>527</v>
@@ -5245,19 +5245,19 @@
         <v>359239</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>333839</v>
+        <v>329490</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>387361</v>
+        <v>385633</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3487410378867214</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3240830222433124</v>
+        <v>0.3198611779606655</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3760409459794044</v>
+        <v>0.374363652265328</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>898</v>
@@ -5266,19 +5266,19 @@
         <v>711054</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>667613</v>
+        <v>669620</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>753561</v>
+        <v>755494</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3460079447521159</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3248687950860078</v>
+        <v>0.3258454445639666</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3666925284328807</v>
+        <v>0.3676332420994699</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>595514</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>561824</v>
+        <v>559961</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>628097</v>
+        <v>628192</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6262316392962187</v>
+        <v>0.6262316392962185</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5908031431404661</v>
+        <v>0.5888445037090111</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6604953284071201</v>
+        <v>0.6605948876436956</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>815</v>
@@ -5391,19 +5391,19 @@
         <v>539439</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>510403</v>
+        <v>512842</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>564194</v>
+        <v>565749</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6124796869445478</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5795119606473195</v>
+        <v>0.5822815666487747</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6405863939853365</v>
+        <v>0.642351563229313</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1394</v>
@@ -5412,19 +5412,19 @@
         <v>1134954</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1091092</v>
+        <v>1093495</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1174138</v>
+        <v>1176909</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6196191966566547</v>
+        <v>0.6196191966566548</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5956731119874183</v>
+        <v>0.5969851158185889</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6410115187286827</v>
+        <v>0.6425240918219697</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>355435</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>322852</v>
+        <v>322757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>389125</v>
+        <v>390988</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3737683607037813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3395046715928802</v>
+        <v>0.3394051123563044</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4091968568595341</v>
+        <v>0.4111554962909891</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>468</v>
@@ -5462,19 +5462,19 @@
         <v>341307</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>316552</v>
+        <v>314997</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>370343</v>
+        <v>367904</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3875203130554523</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3594136060146635</v>
+        <v>0.3576484367706873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.420488039352681</v>
+        <v>0.4177184333512253</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>811</v>
@@ -5483,19 +5483,19 @@
         <v>696742</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>657558</v>
+        <v>654787</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>740604</v>
+        <v>738201</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3803808033433452</v>
+        <v>0.3803808033433453</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3589884812713175</v>
+        <v>0.3574759081780303</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4043268880125818</v>
+        <v>0.4030148841814111</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1926952</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1863037</v>
+        <v>1859985</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1987801</v>
+        <v>1984386</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5753263716487216</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.556243567482604</v>
+        <v>0.5553324396347323</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5934941978410349</v>
+        <v>0.5924744044859727</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3015</v>
@@ -5608,19 +5608,19 @@
         <v>2127890</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2076030</v>
+        <v>2075583</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2182574</v>
+        <v>2181736</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5931946042345653</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5787372881244447</v>
+        <v>0.578612883828048</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6084389100124037</v>
+        <v>0.6082052325514743</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4827</v>
@@ -5629,19 +5629,19 @@
         <v>4054843</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3975199</v>
+        <v>3975787</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4135652</v>
+        <v>4135562</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5845668382937271</v>
+        <v>0.584566838293727</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5730850292819021</v>
+        <v>0.57316983294721</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.596216741904777</v>
+        <v>0.5962037828223189</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1422367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1361518</v>
+        <v>1364933</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1486282</v>
+        <v>1489334</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4246736283512785</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4065058021589652</v>
+        <v>0.4075255955140273</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4437564325173961</v>
+        <v>0.4446675603652678</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2145</v>
@@ -5679,19 +5679,19 @@
         <v>1459281</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1404597</v>
+        <v>1405435</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1511141</v>
+        <v>1511588</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4068053957654347</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3915610899875962</v>
+        <v>0.3917947674485256</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4212627118755553</v>
+        <v>0.421387116171952</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3554</v>
@@ -5700,19 +5700,19 @@
         <v>2881648</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2800839</v>
+        <v>2800929</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2961292</v>
+        <v>2960704</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4154331617062729</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4037832580952229</v>
+        <v>0.4037962171776812</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4269149707180978</v>
+        <v>0.42683016705279</v>
       </c>
     </row>
     <row r="18">
